--- a/cost economics.xlsx
+++ b/cost economics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e170fdeb1dc59c9/git projects/streamlit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e170fdeb1dc59c9/git projects/economic calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{2A70AEDA-1653-4098-B605-29A497657522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{545F20C6-7129-46DC-8E37-E1A7FF74BFAA}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{2A70AEDA-1653-4098-B605-29A497657522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D6063C7-14EB-4898-B701-D20F1AE8BF6A}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11640" windowHeight="12336" tabRatio="784" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="784" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mahipal Chary" sheetId="1" r:id="rId1"/>
@@ -204,6 +204,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -735,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CFAFB6-8D00-496D-9606-20F89920DF17}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1777,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C582BB6-5E28-4ED4-9549-57B253BA70B2}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1955,11 +1959,11 @@
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C18" s="1">
         <f>B18/8</f>
-        <v>62.5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1969,7 +1973,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1">
         <f>SUM(C15:C18)</f>
-        <v>118.95</v>
+        <v>181.45</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1984,7 +1988,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1">
         <f>C12+C19</f>
-        <v>173.32499999999999</v>
+        <v>235.82499999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1996,7 +2000,7 @@
       </c>
       <c r="C22" s="1">
         <f>C21/B22</f>
-        <v>866.62499999999989</v>
+        <v>1179.1249999999998</v>
       </c>
       <c r="D22" t="s">
         <v>29</v>
@@ -2008,7 +2012,7 @@
       </c>
       <c r="C24" s="1">
         <f>(C21+(C21*0.25))*1.25</f>
-        <v>270.8203125</v>
+        <v>368.4765625</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2017,7 +2021,7 @@
       </c>
       <c r="C25" s="1">
         <f>(C12*B4)/(C24-C21)</f>
-        <v>111.54382422231836</v>
+        <v>81.981695466270892</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2026,7 +2030,7 @@
       </c>
       <c r="C26" s="1">
         <f>B1/((C24-C21)*300)</f>
-        <v>0.99150065975394108</v>
+        <v>0.7287261819224079</v>
       </c>
     </row>
   </sheetData>
@@ -2295,7 +2299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCF7F52-030C-4AC3-9DD6-26AE0B967CC0}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
